--- a/BalanceSheet/INTC_bal.xlsx
+++ b/BalanceSheet/INTC_bal.xlsx
@@ -4432,7 +4432,7 @@
         <v>19116000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>16583000000.0</v>
+        <v>15878000000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>16882000000.0</v>
@@ -4559,7 +4559,7 @@
         <v>39919000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>29706000000.0</v>
+        <v>29001000000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>28907000000.0</v>
